--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17568" windowHeight="9420"/>
+    <workbookView windowWidth="7080" windowHeight="5003"/>
   </bookViews>
   <sheets>
     <sheet name="六月" sheetId="1" r:id="rId1"/>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4" outlineLevelCol="5"/>
